--- a/biology/Zoologie/Ausobskya/Ausobskya.xlsx
+++ b/biology/Zoologie/Ausobskya/Ausobskya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ausobskya est un genre d'opilions laniatores de la famille des Phalangodidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont endémiques de Grèce.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (07/10/2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (07/10/2021) :
 Ausobskya athos Martens, 1972
 Ausobskya brevipes Thaler, 1996
 Ausobskya hauseri Šilhavý, 1976
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur d'Albert Ausobsky[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur d'Albert Ausobsky.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Martens, 1972 : « Ausobskya athos, der erste Krallenweberknecht aus Griechenland (Opiliones: Phalangodidae). » Mit Bemerkungen zur Familien-Gliederung der europäischen Laniatores. Senckenbergiana biologica, vol. 53, no 5/6, p. 431–440.</t>
         </is>
